--- a/lab2/AnsiblePythonLab.xlsx
+++ b/lab2/AnsiblePythonLab.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/to-yuki/Documents/Job/git/ansible-python/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D1BFCF-A237-414B-838C-CDEBF38DFD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000D5BD3-EA29-0745-9A5E-83E9310F3A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31240" yWindow="2840" windowWidth="30520" windowHeight="18400" xr2:uid="{EFECBEB6-E903-D344-AEE8-F37B96A76D4C}"/>
+    <workbookView xWindow="-33540" yWindow="520" windowWidth="30520" windowHeight="18400" activeTab="1" xr2:uid="{EFECBEB6-E903-D344-AEE8-F37B96A76D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="1" r:id="rId1"/>
-    <sheet name="target" sheetId="2" r:id="rId2"/>
+    <sheet name="target" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>ホスト名</t>
     <phoneticPr fontId="1"/>
@@ -80,22 +80,6 @@
   </si>
   <si>
     <t>ユーザ名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>student1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>student2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>student3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>student4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -121,10 +105,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ローカルユーザ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>172.25.2.1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -211,6 +191,54 @@
   </si>
   <si>
     <t>※ポート番号orサービス名で記述</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mariadb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBサーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dbadmin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>webadmin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebAdminUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBAdminUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upadmin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ContentUPLoadUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>172.25.2.42</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cat </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -340,7 +368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +397,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -723,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2DEE2C-24EB-7D41-9A4C-9F82E951DBEC}">
   <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="166" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -735,52 +766,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16" thickBot="1">
-      <c r="B1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="2:8">
       <c r="C4" s="6"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -800,15 +831,15 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>24</v>
@@ -816,21 +847,21 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -839,15 +870,15 @@
       <c r="C11" s="7"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="E13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="4" t="s">
@@ -859,121 +890,121 @@
       <c r="E14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="10"/>
+      <c r="F15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="10"/>
+      <c r="F16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="6"/>
@@ -983,11 +1014,11 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -997,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="6"/>
@@ -1009,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="6"/>
@@ -1058,14 +1089,14 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="11"/>
+      <c r="C38" s="12"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="5" t="s">
@@ -1077,35 +1108,27 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="1"/>
@@ -1124,73 +1147,73 @@
       <c r="C47" s="2"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="B50" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" spans="2:7">
       <c r="D57" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="F58" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="15"/>
+      <c r="F58" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1223,13 +1246,477 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C974870-3A9B-C642-9016-D9E0B866A04E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DAD76F-C8C2-2749-9271-F49945AD563C}">
+  <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="16" thickBot="1">
+      <c r="B1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="C4" s="6"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="8">
+        <v>2</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="8">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="8">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="8">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="8">
+        <v>6</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="F58" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G56"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lab2/AnsiblePythonLab.xlsx
+++ b/lab2/AnsiblePythonLab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/to-yuki/Documents/Job/git/ansible-python/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000D5BD3-EA29-0745-9A5E-83E9310F3A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5789A5BA-CF8F-ED4B-AD22-83E534148DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33540" yWindow="520" windowWidth="30520" windowHeight="18400" activeTab="1" xr2:uid="{EFECBEB6-E903-D344-AEE8-F37B96A76D4C}"/>
   </bookViews>
@@ -368,7 +368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,38 +405,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2DEE2C-24EB-7D41-9A4C-9F82E951DBEC}">
   <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView zoomScale="166" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="166" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -766,33 +769,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16" thickBot="1">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="9" t="s">
         <v>18</v>
       </c>
@@ -800,18 +803,18 @@
     </row>
     <row r="4" spans="2:8">
       <c r="C4" s="6"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -870,15 +873,15 @@
       <c r="C11" s="7"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="C13" s="19"/>
+      <c r="E13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="4" t="s">
@@ -890,10 +893,10 @@
       <c r="E14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
@@ -905,10 +908,10 @@
       <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="1" t="s">
@@ -920,10 +923,10 @@
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
@@ -933,78 +936,78 @@
         <v>12</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="6"/>
@@ -1014,11 +1017,11 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -1093,10 +1096,10 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="23"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="5" t="s">
@@ -1147,62 +1150,62 @@
       <c r="C47" s="2"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
     </row>
     <row r="57" spans="2:7">
       <c r="D57" t="s">
@@ -1210,13 +1213,19 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="16"/>
+      <c r="G58" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="B51:G56"/>
@@ -1233,12 +1242,6 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1249,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DAD76F-C8C2-2749-9271-F49945AD563C}">
   <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="166" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1261,33 +1264,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16" thickBot="1">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="9" t="s">
         <v>18</v>
       </c>
@@ -1295,18 +1298,18 @@
     </row>
     <row r="4" spans="2:8">
       <c r="C4" s="6"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1365,15 +1368,15 @@
       <c r="C11" s="7"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="C13" s="19"/>
+      <c r="E13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="9" t="s">
@@ -1385,10 +1388,10 @@
       <c r="E14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="8" t="s">
@@ -1400,94 +1403,94 @@
       <c r="E15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="6"/>
@@ -1497,11 +1500,11 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -1574,10 +1577,10 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="23"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="10" t="s">
@@ -1596,8 +1599,8 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="8"/>
@@ -1624,62 +1627,62 @@
       <c r="C47" s="8"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
     </row>
     <row r="57" spans="2:7">
       <c r="D57" t="s">
@@ -1687,13 +1690,25 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="16"/>
+      <c r="G58" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="B51:G56"/>
@@ -1704,18 +1719,6 @@
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab2/AnsiblePythonLab.xlsx
+++ b/lab2/AnsiblePythonLab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/to-yuki/Documents/Job/git/ansible-python/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5789A5BA-CF8F-ED4B-AD22-83E534148DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9142963-5E3E-EA41-AF02-8B9DCFE6D669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33540" yWindow="520" windowWidth="30520" windowHeight="18400" activeTab="1" xr2:uid="{EFECBEB6-E903-D344-AEE8-F37B96A76D4C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>ホスト名</t>
     <phoneticPr fontId="1"/>
@@ -239,6 +239,10 @@
   </si>
   <si>
     <t xml:space="preserve">cat </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ntp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -757,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2DEE2C-24EB-7D41-9A4C-9F82E951DBEC}">
   <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="166" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A20" zoomScale="166" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1054,7 +1058,9 @@
       <c r="B32" s="8">
         <v>3</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1252,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DAD76F-C8C2-2749-9271-F49945AD563C}">
   <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="166" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="166" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1525,7 +1531,9 @@
       <c r="B31" s="8">
         <v>2</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="D31" s="7"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
